--- a/jira_excel_example_1.xlsx
+++ b/jira_excel_example_1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IdeaProjectsOnE\JavaBlueProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="36" windowWidth="22980" windowHeight="9552"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>Issue type</t>
   </si>
@@ -30,12 +35,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>Severity</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>Defect</t>
   </si>
   <si>
@@ -61,18 +60,6 @@
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>In development</t>
-  </si>
-  <si>
-    <t>In testing</t>
-  </si>
-  <si>
-    <t>Ready for Uat</t>
   </si>
 </sst>
 </file>
@@ -140,6 +127,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -187,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -222,7 +212,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -434,20 +424,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,88 +450,72 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="2">
         <v>1092</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>4092</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>2221</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -555,7 +529,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -567,7 +541,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
